--- a/library/Library_hbrown_08.19.19.xlsx
+++ b/library/Library_hbrown_08.19.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D3F7B-BB68-4640-A5BF-8C4608F7CD88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DE14EF-981E-A448-878B-781C5025DC6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="69">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>SIC_Index2_06</t>
+  </si>
+  <si>
+    <t>GACCTT</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -272,6 +275,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,8 +299,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
@@ -301,13 +311,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{ED7F3FF1-9695-C142-B818-506DEE5273CD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,7 +633,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I27"/>
+      <selection activeCell="J2" sqref="J2:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,11 +721,13 @@
       <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="b">
+      <c r="J2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -761,10 +774,13 @@
       <c r="I3" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="6" t="b">
+      <c r="J3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -797,10 +813,13 @@
       <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="6" t="b">
+      <c r="J4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -833,10 +852,13 @@
       <c r="I5" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="6" t="b">
+      <c r="J5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -869,10 +891,13 @@
       <c r="I6" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="6" t="b">
+      <c r="J6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -905,10 +930,13 @@
       <c r="I7" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="6" t="b">
+      <c r="J7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -941,10 +969,13 @@
       <c r="I8" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="6" t="b">
+      <c r="J8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -977,10 +1008,13 @@
       <c r="I9" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="6" t="b">
+      <c r="J9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1013,10 +1047,13 @@
       <c r="I10" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="6" t="b">
+      <c r="J10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1049,10 +1086,13 @@
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="6" t="b">
+      <c r="J11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1085,10 +1125,13 @@
       <c r="I12" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="6" t="b">
+      <c r="J12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1121,10 +1164,13 @@
       <c r="I13" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="6" t="b">
+      <c r="J13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1157,10 +1203,13 @@
       <c r="I14" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="6" t="b">
+      <c r="J14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1193,10 +1242,13 @@
       <c r="I15" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="6" t="b">
+      <c r="J15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1229,10 +1281,13 @@
       <c r="I16" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="6" t="b">
+      <c r="J16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1265,10 +1320,13 @@
       <c r="I17" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="6" t="b">
+      <c r="J17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1301,10 +1359,13 @@
       <c r="I18" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="6" t="b">
+      <c r="J18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1337,10 +1398,13 @@
       <c r="I19" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="6" t="b">
+      <c r="J19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1373,10 +1437,13 @@
       <c r="I20" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="6" t="b">
+      <c r="J20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1409,10 +1476,13 @@
       <c r="I21" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="6" t="b">
+      <c r="J21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1445,10 +1515,13 @@
       <c r="I22" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="6" t="b">
+      <c r="J22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1481,10 +1554,13 @@
       <c r="I23" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="6" t="b">
+      <c r="J23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1517,10 +1593,13 @@
       <c r="I24" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="6" t="b">
+      <c r="J24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1553,10 +1632,13 @@
       <c r="I25" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="6" t="b">
+      <c r="J25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1589,10 +1671,13 @@
       <c r="I26" t="s">
         <v>67</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="6" t="b">
+      <c r="J26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1625,10 +1710,13 @@
       <c r="I27" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="6" t="b">
+      <c r="J27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
